--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_19-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_19-11.xlsx
@@ -317,6 +317,9 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
+    <t>جل هيركود انبوب 100مل</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -327,6 +330,12 @@
   </si>
   <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا الحبه السوداء 210 جم</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>معجون اسنان بارودونتكس 50مل</t>
@@ -2797,17 +2806,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2815,7 +2824,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2823,13 +2832,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2849,17 +2858,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2875,13 +2884,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2901,51 +2910,103 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="K81" s="10">
-        <v>4459.21</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="11">
-        <v>108</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c t="s" r="F82" s="12">
+    <row r="81" ht="24.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>78</v>
+      </c>
+      <c t="s" r="B81" s="7">
         <v>109</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c t="s" r="I82" s="14">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c t="s" r="H81" s="8">
+        <v>65</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9">
+        <v>80</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c t="s" r="N81" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c t="s" r="B82" s="7">
         <v>110</v>
       </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c t="s" r="H82" s="8">
+        <v>9</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9">
+        <v>20</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c t="s" r="N82" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="K83" s="10">
+        <v>4554.21</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+    </row>
+    <row r="84" ht="17.25" customHeight="1">
+      <c t="s" r="A84" s="11">
+        <v>111</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c t="s" r="F84" s="12">
+        <v>112</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="13"/>
+      <c t="s" r="I84" s="14">
+        <v>113</v>
+      </c>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="248">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3184,10 +3245,16 @@
     <mergeCell ref="B80:G80"/>
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I84:N84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
